--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N2">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.977049946452445</v>
+        <v>13.36999871210222</v>
       </c>
       <c r="R2">
-        <v>26.793449518072</v>
+        <v>120.32998840892</v>
       </c>
       <c r="S2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="T2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,22 +608,22 @@
         <v>193.575878</v>
       </c>
       <c r="I3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N3">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.712118578682444</v>
+        <v>17.79919443994555</v>
       </c>
       <c r="R3">
-        <v>33.40906720814201</v>
+        <v>160.19274995951</v>
       </c>
       <c r="S3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="T3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H4">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N4">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>5.870288315788557</v>
+        <v>20.82076646610556</v>
       </c>
       <c r="R4">
-        <v>52.83259484209701</v>
+        <v>187.38689819495</v>
       </c>
       <c r="S4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="T4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H5">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N5">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.855796834969889</v>
+        <v>14.12067406849611</v>
       </c>
       <c r="R5">
-        <v>25.70217151472901</v>
+        <v>127.086066616465</v>
       </c>
       <c r="S5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="T5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H6">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N6">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>4.858404742578667</v>
+        <v>19.90153876699944</v>
       </c>
       <c r="R6">
-        <v>43.725642683208</v>
+        <v>179.113848902995</v>
       </c>
       <c r="S6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="T6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
     </row>
   </sheetData>
